--- a/route_optimization_report.xlsx
+++ b/route_optimization_report.xlsx
@@ -681,44 +681,44 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>08:04</t>
+          <t>08:05</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>08:05</t>
         </is>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>08:08</t>
+          <t>08:05</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>08:07</t>
+          <t>08:05</t>
         </is>
       </c>
     </row>
@@ -738,22 +738,22 @@
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>08:19</t>
+          <t>08:16</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>08:19</t>
+          <t>08:16</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -764,18 +764,18 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>08:16</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>08:16</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -806,11 +806,11 @@
         <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>08:47</t>
+          <t>08:28</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -821,18 +821,18 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>08:36</t>
+          <t>08:28</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>08:37</t>
+          <t>08:28</t>
         </is>
       </c>
     </row>
@@ -856,40 +856,40 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>08:51</t>
+          <t>08:48</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>09:06</t>
+          <t>08:48</t>
         </is>
       </c>
       <c r="J8" t="n">
         <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>08:54</t>
+          <t>08:48</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>08:54</t>
+          <t>08:48</t>
         </is>
       </c>
     </row>
@@ -909,44 +909,44 @@
         <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>08:56</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="J9" t="n">
         <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>09:09</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -966,44 +966,44 @@
         <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09:21</t>
+          <t>09:14</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:14</t>
         </is>
       </c>
       <c r="J10" t="n">
         <v>6</v>
       </c>
       <c r="K10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>09:14</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>6</v>
       </c>
       <c r="N10" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>09:18</t>
+          <t>09:14</t>
         </is>
       </c>
     </row>
@@ -1023,44 +1023,44 @@
         <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>09:23</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>7</v>
       </c>
       <c r="H11" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:23</t>
         </is>
       </c>
       <c r="J11" t="n">
         <v>7</v>
       </c>
       <c r="K11" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:23</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>7</v>
       </c>
       <c r="N11" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>09:23</t>
         </is>
       </c>
     </row>
@@ -1084,40 +1084,40 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>8</v>
       </c>
       <c r="H12" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="J12" t="n">
         <v>8</v>
       </c>
       <c r="K12" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>8</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>09:38</t>
         </is>
       </c>
     </row>
@@ -1126,55 +1126,55 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="G13" t="n">
         <v>9</v>
       </c>
       <c r="H13" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="J13" t="n">
         <v>9</v>
       </c>
       <c r="K13" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>9</v>
       </c>
       <c r="N13" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:59</t>
         </is>
       </c>
     </row>
@@ -1183,55 +1183,55 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>10:13</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>10:13</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>10</v>
       </c>
       <c r="H14" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>10:13</t>
         </is>
       </c>
       <c r="J14" t="n">
         <v>10</v>
       </c>
       <c r="K14" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:13</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>10</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>10:11</t>
+          <t>10:13</t>
         </is>
       </c>
     </row>
@@ -1244,51 +1244,51 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>11</v>
       </c>
       <c r="E15" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>10:39</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>11</v>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>10:32</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="J15" t="n">
         <v>11</v>
       </c>
       <c r="K15" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>11</v>
       </c>
       <c r="N15" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>10:40</t>
         </is>
       </c>
     </row>
@@ -1301,51 +1301,51 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>12</v>
       </c>
       <c r="E16" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10:54</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="G16" t="n">
         <v>12</v>
       </c>
       <c r="H16" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="J16" t="n">
         <v>12</v>
       </c>
       <c r="K16" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>12</v>
       </c>
       <c r="N16" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>11:07</t>
         </is>
       </c>
     </row>
@@ -1358,51 +1358,51 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>13</v>
       </c>
       <c r="E17" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>13</v>
       </c>
       <c r="H17" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="J17" t="n">
         <v>13</v>
       </c>
       <c r="K17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>13</v>
       </c>
       <c r="N17" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>11:29</t>
         </is>
       </c>
     </row>
@@ -1415,51 +1415,51 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>14</v>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="J18" t="n">
         <v>14</v>
       </c>
       <c r="K18" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>14</v>
       </c>
       <c r="N18" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:46</t>
         </is>
       </c>
     </row>
@@ -1479,44 +1479,44 @@
         <v>15</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="G19" t="n">
         <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="J19" t="n">
         <v>15</v>
       </c>
       <c r="K19" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>15</v>
       </c>
       <c r="N19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:30</t>
         </is>
       </c>
     </row>
@@ -1525,22 +1525,22 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>12:42</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>16</v>
       </c>
       <c r="E20" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>12:42</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1551,29 +1551,29 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>12:42</t>
         </is>
       </c>
       <c r="J20" t="n">
         <v>16</v>
       </c>
       <c r="K20" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>12:42</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>16</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>12:42</t>
         </is>
       </c>
     </row>
@@ -1582,55 +1582,55 @@
         <v>17</v>
       </c>
       <c r="B21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>17</v>
       </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="G21" t="n">
         <v>17</v>
       </c>
       <c r="H21" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="J21" t="n">
         <v>17</v>
       </c>
       <c r="K21" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="M21" t="n">
         <v>17</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:05</t>
         </is>
       </c>
     </row>
@@ -1643,51 +1643,51 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>18</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="G22" t="n">
         <v>18</v>
       </c>
       <c r="H22" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>12:53</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="J22" t="n">
         <v>18</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>18</v>
       </c>
       <c r="N22" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>13:11</t>
         </is>
       </c>
     </row>
@@ -1696,55 +1696,55 @@
         <v>19</v>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>19</v>
       </c>
       <c r="E23" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="G23" t="n">
         <v>19</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="J23" t="n">
         <v>19</v>
       </c>
       <c r="K23" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>19</v>
       </c>
       <c r="N23" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>13:28</t>
         </is>
       </c>
     </row>
@@ -1753,55 +1753,55 @@
         <v>20</v>
       </c>
       <c r="B24" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>20</v>
       </c>
       <c r="E24" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="G24" t="n">
         <v>20</v>
       </c>
       <c r="H24" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="J24" t="n">
         <v>20</v>
       </c>
       <c r="K24" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>20</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>13:47</t>
         </is>
       </c>
     </row>
@@ -1810,55 +1810,55 @@
         <v>21</v>
       </c>
       <c r="B25" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>21</v>
       </c>
       <c r="E25" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="G25" t="n">
         <v>21</v>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="J25" t="n">
         <v>21</v>
       </c>
       <c r="K25" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>21</v>
       </c>
       <c r="N25" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>14:08</t>
         </is>
       </c>
     </row>
@@ -1878,33 +1878,33 @@
         <v>22</v>
       </c>
       <c r="E26" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="G26" t="n">
         <v>22</v>
       </c>
       <c r="H26" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="J26" t="n">
         <v>22</v>
       </c>
       <c r="K26" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>14:19</t>
         </is>
       </c>
     </row>
@@ -1924,55 +1924,55 @@
         <v>23</v>
       </c>
       <c r="B27" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:34</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>23</v>
       </c>
       <c r="E27" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>14:34</t>
         </is>
       </c>
       <c r="G27" t="n">
         <v>23</v>
       </c>
       <c r="H27" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>14:29</t>
+          <t>14:34</t>
         </is>
       </c>
       <c r="J27" t="n">
         <v>23</v>
       </c>
       <c r="K27" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>14:34</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>23</v>
       </c>
       <c r="N27" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>14:09</t>
+          <t>14:34</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1992,22 +1992,22 @@
         <v>24</v>
       </c>
       <c r="E28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="G28" t="n">
         <v>24</v>
       </c>
       <c r="H28" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -2018,18 +2018,18 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>13:44</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="M28" t="n">
         <v>24</v>
       </c>
       <c r="N28" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>14:50</t>
         </is>
       </c>
     </row>
@@ -2042,51 +2042,51 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>15:04</t>
+          <t>15:08</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>25</v>
       </c>
       <c r="E29" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>15:08</t>
         </is>
       </c>
       <c r="G29" t="n">
         <v>25</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>14:49</t>
+          <t>15:08</t>
         </is>
       </c>
       <c r="J29" t="n">
         <v>25</v>
       </c>
       <c r="K29" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>15:08</t>
         </is>
       </c>
       <c r="M29" t="n">
         <v>25</v>
       </c>
       <c r="N29" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>14:46</t>
+          <t>15:08</t>
         </is>
       </c>
     </row>
@@ -2095,55 +2095,55 @@
         <v>26</v>
       </c>
       <c r="B30" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>15:11</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="D30" t="n">
         <v>26</v>
       </c>
       <c r="E30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="G30" t="n">
         <v>26</v>
       </c>
       <c r="H30" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="J30" t="n">
         <v>26</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>14:32</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="M30" t="n">
         <v>26</v>
       </c>
       <c r="N30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>15:24</t>
         </is>
       </c>
     </row>
@@ -2152,55 +2152,55 @@
         <v>27</v>
       </c>
       <c r="B31" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>15:29</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>27</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="G31" t="n">
         <v>27</v>
       </c>
       <c r="H31" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="J31" t="n">
         <v>27</v>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>27</v>
       </c>
       <c r="N31" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>15:32</t>
         </is>
       </c>
     </row>
@@ -2209,55 +2209,55 @@
         <v>28</v>
       </c>
       <c r="B32" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>15:43</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>28</v>
       </c>
       <c r="E32" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="G32" t="n">
         <v>28</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>15:31</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="J32" t="n">
         <v>28</v>
       </c>
       <c r="K32" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>28</v>
       </c>
       <c r="N32" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>15:33</t>
+          <t>15:45</t>
         </is>
       </c>
     </row>
@@ -2270,51 +2270,51 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>16:04</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>29</v>
       </c>
       <c r="E33" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>15:38</t>
+          <t>16:04</t>
         </is>
       </c>
       <c r="G33" t="n">
         <v>29</v>
       </c>
       <c r="H33" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>16:04</t>
         </is>
       </c>
       <c r="J33" t="n">
         <v>29</v>
       </c>
       <c r="K33" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>15:33</t>
+          <t>16:04</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>29</v>
       </c>
       <c r="N33" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>15:53</t>
+          <t>16:04</t>
         </is>
       </c>
     </row>
@@ -2327,51 +2327,51 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16:01</t>
+          <t>16:10</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>30</v>
       </c>
       <c r="E34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:10</t>
         </is>
       </c>
       <c r="G34" t="n">
         <v>30</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>15:57</t>
+          <t>16:10</t>
         </is>
       </c>
       <c r="J34" t="n">
         <v>30</v>
       </c>
       <c r="K34" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>15:48</t>
+          <t>16:10</t>
         </is>
       </c>
       <c r="M34" t="n">
         <v>30</v>
       </c>
       <c r="N34" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>16:10</t>
         </is>
       </c>
     </row>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16:14</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>16:10</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:24</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>8.25 hrs</t>
+          <t>8.40 hrs</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>8.20 hrs</t>
+          <t>8.40 hrs</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>8.17 hrs</t>
+          <t>8.40 hrs</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>8.01 hrs</t>
+          <t>8.40 hrs</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>8.34 hrs</t>
+          <t>8.40 hrs</t>
         </is>
       </c>
     </row>
@@ -2603,7 +2603,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16:14</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>16:12</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>16:10</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:24</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>16:20</t>
+          <t>16:24</t>
         </is>
       </c>
     </row>
@@ -3008,7 +3008,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -3017,33 +3017,33 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12:30-13:00</t>
+          <t>09:30-10:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Early</t>
+          <t>On Time</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.0h 31.46472315275969m</t>
-        </is>
-      </c>
-      <c r="G11" s="6" t="inlineStr">
-        <is>
-          <t>0.02</t>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>1.00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -3052,27 +3052,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>09:30-10:00</t>
+          <t>15:30-16:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>10:13</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Late</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.0h 22.727084556007526m</t>
-        </is>
-      </c>
-      <c r="G12" s="7" t="inlineStr">
-        <is>
-          <t>0.75</t>
+          <t>5.0h 16.310873758745856m</t>
+        </is>
+      </c>
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3102,12 +3102,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.0h 39.603228559915124m</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>0.56</t>
+          <t>0.0h 49.271715259785765m</t>
+        </is>
+      </c>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>0.06</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3137,12 +3137,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.0h 12.591408390108768m</t>
+          <t>0.0h 22.25989508997941m</t>
         </is>
       </c>
       <c r="G14" s="7" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.75</t>
         </is>
       </c>
     </row>
@@ -3162,17 +3162,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0m</t>
+          <t>0.0h 0.38395202222045555m</t>
         </is>
       </c>
       <c r="G15" s="5" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3253,7 +3253,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>12:42</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -3288,7 +3288,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -3297,27 +3297,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13:00-13:30</t>
+          <t>12:30-13:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0m</t>
+          <t>0.0h 5.898098096838567m</t>
         </is>
       </c>
       <c r="G19" s="5" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.93</t>
         </is>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13:21</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -3358,7 +3358,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -3372,28 +3372,28 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0m</t>
+          <t>0.0h 1.6889798221881165m</t>
         </is>
       </c>
       <c r="G21" s="5" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.98</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -3402,33 +3402,33 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13:30-14:00</t>
+          <t>13:00-13:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G22" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>0.0h 17.896493657484143m</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="inlineStr">
+        <is>
+          <t>0.80</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -3437,27 +3437,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14:00-14:30</t>
+          <t>13:30-14:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0m</t>
+          <t>0.0h 8.780795547870866m</t>
         </is>
       </c>
       <c r="G23" s="5" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.90</t>
         </is>
       </c>
     </row>
@@ -3498,7 +3498,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:34</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3522,18 +3522,18 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.0h 0.314953398873854m</t>
+          <t>0.0h 4.8065986677058845m</t>
         </is>
       </c>
       <c r="G25" s="5" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.95</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>15:00-15:30</t>
+          <t>14:00-14:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3552,17 +3552,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Early</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.0h 9.404078282771707m</t>
+          <t>0.0h 20.066627292787075m</t>
         </is>
       </c>
       <c r="G26" s="7" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>15:04</t>
+          <t>15:08</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3603,7 +3603,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>15:11</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3627,18 +3627,18 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.0h 18.111080914853233m</t>
-        </is>
-      </c>
-      <c r="G28" s="7" t="inlineStr">
-        <is>
-          <t>0.80</t>
+          <t>0.0h 5.618940435226591m</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>0.94</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -3647,33 +3647,33 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>15:30-16:00</t>
+          <t>15:00-15:30</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>15:29</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Early</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.0h 0.26230910332685653m</t>
+          <t>0.0h 2.6016084442021565m</t>
         </is>
       </c>
       <c r="G29" s="5" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.97</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>15:43</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3722,22 +3722,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>16:04</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0m</t>
+          <t>0.0h 4.971005711569774m</t>
         </is>
       </c>
       <c r="G31" s="5" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.94</t>
         </is>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>16:01</t>
+          <t>16:10</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3778,7 +3778,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -3787,12 +3787,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>08:30-09:00</t>
+          <t>11:00-11:30</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>08:04</t>
+          <t>08:05</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3802,18 +3802,18 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.0h 25.79349876141424m</t>
-        </is>
-      </c>
-      <c r="G33" s="7" t="inlineStr">
-        <is>
-          <t>0.71</t>
+          <t>2.0h 54.371740292655716m</t>
+        </is>
+      </c>
+      <c r="G33" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -3822,12 +3822,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>15:30-16:00</t>
+          <t>13:30-14:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>08:19</t>
+          <t>08:16</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3837,7 +3837,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>7.0h 10.716430843060664m</t>
+          <t>5.0h 13.91525049317147m</t>
         </is>
       </c>
       <c r="G34" s="6" t="inlineStr">
@@ -3848,7 +3848,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>08:30-09:00</t>
+          <t>10:30-11:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3872,12 +3872,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.0h 1.7567288814105382m</t>
-        </is>
-      </c>
-      <c r="G35" s="5" t="inlineStr">
-        <is>
-          <t>0.98</t>
+          <t>2.0h 1.5444484473879925m</t>
+        </is>
+      </c>
+      <c r="G35" s="6" t="inlineStr">
+        <is>
+          <t>0.02</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>08:51</t>
+          <t>08:48</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3907,18 +3907,18 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.0h 38.71789351139944m</t>
+          <t>0.0h 41.062776030289115m</t>
         </is>
       </c>
       <c r="G36" s="8" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.54</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3927,12 +3927,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>11:30-12:00</t>
+          <t>11:00-11:30</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>08:56</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3942,7 +3942,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2.0h 33.02961556398759m</t>
+          <t>1.0h 59.718209007901464m</t>
         </is>
       </c>
       <c r="G37" s="6" t="inlineStr">
@@ -3953,7 +3953,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3962,12 +3962,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>09:30-10:00</t>
+          <t>15:00-15:30</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>09:21</t>
+          <t>09:14</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3977,18 +3977,18 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.0h 8.643576761574423m</t>
-        </is>
-      </c>
-      <c r="G38" s="5" t="inlineStr">
-        <is>
-          <t>0.90</t>
+          <t>5.0h 45.5337015031846m</t>
+        </is>
+      </c>
+      <c r="G38" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3997,27 +3997,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>09:30-10:00</t>
+          <t>15:30-16:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>09:23</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G39" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>6.0h 6.875938038826007m</t>
+        </is>
+      </c>
+      <c r="G39" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -4047,18 +4047,18 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.0h 7.2184639144804805m</t>
-        </is>
-      </c>
-      <c r="G40" s="5" t="inlineStr">
-        <is>
-          <t>0.92</t>
+          <t>0.0h 21.84102368274148m</t>
+        </is>
+      </c>
+      <c r="G40" s="7" t="inlineStr">
+        <is>
+          <t>0.76</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -4067,33 +4067,33 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>10:00-10:30</t>
+          <t>08:30-09:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G41" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>0.0h 59.53348501863593m</t>
+        </is>
+      </c>
+      <c r="G41" s="6" t="inlineStr">
+        <is>
+          <t>0.05</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -4102,12 +4102,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>10:30-11:00</t>
+          <t>15:30-16:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>10:13</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -4117,18 +4117,18 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.0h 0.46343522766937895m</t>
-        </is>
-      </c>
-      <c r="G42" s="5" t="inlineStr">
-        <is>
-          <t>0.99</t>
+          <t>5.0h 16.310873758745856m</t>
+        </is>
+      </c>
+      <c r="G42" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -4137,12 +4137,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>15:00-15:30</t>
+          <t>11:30-12:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>10:39</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -4152,18 +4152,18 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>4.0h 20.773148681755288m</t>
+          <t>0.0h 49.271715259785765m</t>
         </is>
       </c>
       <c r="G43" s="6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.06</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -4172,33 +4172,33 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>10:30-11:00</t>
+          <t>09:30-10:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>10:54</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G44" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>1.0h 7.740104910020591m</t>
+        </is>
+      </c>
+      <c r="G44" s="6" t="inlineStr">
+        <is>
+          <t>0.04</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -4207,33 +4207,33 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>11:00-11:30</t>
+          <t>10:30-11:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G45" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>0.0h 29.616047977779544m</t>
+        </is>
+      </c>
+      <c r="G45" s="8" t="inlineStr">
+        <is>
+          <t>0.67</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -4242,33 +4242,33 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>11:00-11:30</t>
+          <t>13:30-14:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>11:24</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G46" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>1.0h 43.266143275029776m</t>
+        </is>
+      </c>
+      <c r="G46" s="6" t="inlineStr">
+        <is>
+          <t>0.03</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -4277,12 +4277,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>11:00-11:30</t>
+          <t>08:30-09:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4292,18 +4292,18 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.0h 4.54371254591706m</t>
-        </is>
-      </c>
-      <c r="G47" s="5" t="inlineStr">
-        <is>
-          <t>0.95</t>
+          <t>3.0h 30.0m</t>
+        </is>
+      </c>
+      <c r="G47" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -4317,28 +4317,28 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>11:46</t>
+          <t>12:42</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G48" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>0.0h 42.760017418525536m</t>
+        </is>
+      </c>
+      <c r="G48" s="8" t="inlineStr">
+        <is>
+          <t>0.52</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4347,12 +4347,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>11:30-12:00</t>
+          <t>10:30-11:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4362,18 +4362,18 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.0h 30.0m</t>
-        </is>
-      </c>
-      <c r="G49" s="8" t="inlineStr">
-        <is>
-          <t>0.67</t>
+          <t>2.0h 5.898098096838567m</t>
+        </is>
+      </c>
+      <c r="G49" s="6" t="inlineStr">
+        <is>
+          <t>0.02</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4382,12 +4382,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>10:30-11:00</t>
+          <t>11:30-12:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4397,18 +4397,18 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1.0h 40.02420040319032m</t>
+          <t>1.0h 11.210010488610124m</t>
         </is>
       </c>
       <c r="G50" s="6" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4417,33 +4417,33 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>12:30-13:00</t>
+          <t>09:00-09:30</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>12:54</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G51" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>3.0h 58.31102017781188m</t>
+        </is>
+      </c>
+      <c r="G51" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4452,22 +4452,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>11:30-12:00</t>
+          <t>15:00-15:30</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Late</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1.0h 7.6399610359737835m</t>
+          <t>1.0h 12.103506342515857m</t>
         </is>
       </c>
       <c r="G52" s="6" t="inlineStr">
@@ -4478,7 +4478,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4487,33 +4487,33 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>13:30-14:00</t>
+          <t>09:30-10:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G53" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>4.0h 8.780795547870866m</t>
+        </is>
+      </c>
+      <c r="G53" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4522,33 +4522,33 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>11:00-11:30</t>
+          <t>15:00-15:30</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>13:40</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Late</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2.0h 10.85763120388151m</t>
-        </is>
-      </c>
-      <c r="G54" s="6" t="inlineStr">
-        <is>
-          <t>0.02</t>
+          <t>0.0h 40.86464365051654m</t>
+        </is>
+      </c>
+      <c r="G54" s="8" t="inlineStr">
+        <is>
+          <t>0.55</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4557,33 +4557,33 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>13:30-14:00</t>
+          <t>14:00-14:30</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>14:34</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0m</t>
+          <t>0.0h 4.8065986677058845m</t>
         </is>
       </c>
       <c r="G55" s="5" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.95</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4592,33 +4592,33 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>14:00-14:30</t>
+          <t>11:00-11:30</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G56" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>3.0h 20.066627292787075m</t>
+        </is>
+      </c>
+      <c r="G56" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4627,12 +4627,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>09:00-09:30</t>
+          <t>11:00-11:30</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>14:33</t>
+          <t>15:08</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4642,7 +4642,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>5.0h 3.467670303330351m</t>
+          <t>3.0h 38.31510524053829m</t>
         </is>
       </c>
       <c r="G57" s="6" t="inlineStr">
@@ -4653,7 +4653,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4662,33 +4662,33 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>14:30-15:00</t>
+          <t>12:30-13:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G58" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>2.0h 24.38105956477341m</t>
+        </is>
+      </c>
+      <c r="G58" s="6" t="inlineStr">
+        <is>
+          <t>0.02</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4697,33 +4697,33 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>15:00-15:30</t>
+          <t>14:30-15:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Early</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.0h 0.1367683185496844m</t>
-        </is>
-      </c>
-      <c r="G59" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>0.0h 32.60160844420216m</t>
+        </is>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>0.64</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -4732,33 +4732,33 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>15:00-15:30</t>
+          <t>10:00-10:30</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>15:16</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G60" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>5.0h 15.447049764409485m</t>
+        </is>
+      </c>
+      <c r="G60" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4767,33 +4767,33 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>15:30-16:00</t>
+          <t>10:00-10:30</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>15:38</t>
+          <t>16:04</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G61" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>5.0h 34.971005711569774m</t>
+        </is>
+      </c>
+      <c r="G61" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4802,12 +4802,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>10:00-10:30</t>
+          <t>11:30-12:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:10</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4817,7 +4817,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>5.0h 30.23881354395769m</t>
+          <t>4.0h 10.21747849909434m</t>
         </is>
       </c>
       <c r="G62" s="6" t="inlineStr">
@@ -4828,7 +4828,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4837,33 +4837,33 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>08:00-08:30</t>
+          <t>15:00-15:30</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>08:05</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G63" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>6.0h 54.371740292655716m</t>
+        </is>
+      </c>
+      <c r="G63" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -4872,33 +4872,33 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>08:00-08:30</t>
+          <t>16:00-16:30</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>08:19</t>
+          <t>08:16</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G64" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>7.0h 43.91525049317147m</t>
+        </is>
+      </c>
+      <c r="G64" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -4907,33 +4907,33 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>08:30-09:00</t>
+          <t>15:00-15:30</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>08:47</t>
+          <t>08:28</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G65" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>6.0h 31.544448447387992m</t>
+        </is>
+      </c>
+      <c r="G65" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -4942,12 +4942,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>16:00-16:30</t>
+          <t>10:00-10:30</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>09:06</t>
+          <t>08:48</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4957,18 +4957,18 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>6.0h 53.93704542032788m</t>
+          <t>1.0h 11.062776030289115m</t>
         </is>
       </c>
       <c r="G66" s="6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.04</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4977,12 +4977,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>09:30-10:00</t>
+          <t>13:30-14:00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4992,18 +4992,18 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.0h 4.165946540811888m</t>
-        </is>
-      </c>
-      <c r="G67" s="5" t="inlineStr">
-        <is>
-          <t>0.95</t>
+          <t>4.0h 29.718209007901464m</t>
+        </is>
+      </c>
+      <c r="G67" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5012,33 +5012,33 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>14:30-15:00</t>
+          <t>08:30-09:00</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:14</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Early</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>4.0h 55.126480801430716m</t>
-        </is>
-      </c>
-      <c r="G68" s="6" t="inlineStr">
-        <is>
-          <t>0.01</t>
+          <t>0.0h 14.466298496815398m</t>
+        </is>
+      </c>
+      <c r="G68" s="7" t="inlineStr">
+        <is>
+          <t>0.84</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5047,12 +5047,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>12:30-13:00</t>
+          <t>09:30-10:00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:23</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5062,18 +5062,18 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2.0h 42.17912236051393m</t>
-        </is>
-      </c>
-      <c r="G69" s="6" t="inlineStr">
-        <is>
-          <t>0.02</t>
+          <t>0.0h 6.875938038826007m</t>
+        </is>
+      </c>
+      <c r="G69" s="5" t="inlineStr">
+        <is>
+          <t>0.92</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5082,33 +5082,33 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>09:30-10:00</t>
+          <t>10:00-10:30</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G70" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>0.0h 21.84102368274148m</t>
+        </is>
+      </c>
+      <c r="G70" s="7" t="inlineStr">
+        <is>
+          <t>0.76</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5117,33 +5117,33 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>10:00-10:30</t>
+          <t>14:30-15:00</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G71" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>4.0h 30.46651498136407m</t>
+        </is>
+      </c>
+      <c r="G71" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5152,33 +5152,33 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>10:00-10:30</t>
+          <t>09:30-10:00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>10:13</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G72" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>0.0h 13.689126241254144m</t>
+        </is>
+      </c>
+      <c r="G72" s="7" t="inlineStr">
+        <is>
+          <t>0.85</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -5187,33 +5187,33 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>15:30-16:00</t>
+          <t>08:00-08:30</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>10:32</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Early</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>4.0h 57.953440524924304m</t>
+          <t>2.0h 10.728284740214235m</t>
         </is>
       </c>
       <c r="G73" s="6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -5222,33 +5222,33 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>10:30-11:00</t>
+          <t>14:30-15:00</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G74" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>3.0h 22.25989508997941m</t>
+        </is>
+      </c>
+      <c r="G74" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -5257,12 +5257,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>11:00-11:30</t>
+          <t>15:30-16:00</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -5272,18 +5272,18 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0.0h 0.12193761795424507m</t>
-        </is>
-      </c>
-      <c r="G75" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>4.0h 0.38395202222045555m</t>
+        </is>
+      </c>
+      <c r="G75" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -5292,33 +5292,33 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>11:00-11:30</t>
+          <t>08:30-09:00</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G76" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>2.0h 46.733856724970224m</t>
+        </is>
+      </c>
+      <c r="G76" s="6" t="inlineStr">
+        <is>
+          <t>0.02</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -5327,27 +5327,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>11:30-12:00</t>
+          <t>15:30-16:00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G77" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>3.0h 0.0m</t>
+        </is>
+      </c>
+      <c r="G77" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
@@ -5367,28 +5367,28 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>11:57</t>
+          <t>12:42</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G78" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>0.0h 42.760017418525536m</t>
+        </is>
+      </c>
+      <c r="G78" s="8" t="inlineStr">
+        <is>
+          <t>0.52</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5412,18 +5412,18 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2.0h 30.0m</t>
+          <t>3.0h 5.898098096838567m</t>
         </is>
       </c>
       <c r="G79" s="6" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -5432,22 +5432,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>16:00-16:30</t>
+          <t>08:30-09:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>12:53</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Early</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>3.0h 6.695351522982378m</t>
+          <t>4.0h 11.210010488610124m</t>
         </is>
       </c>
       <c r="G80" s="6" t="inlineStr">
@@ -5458,7 +5458,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -5467,12 +5467,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>09:00-09:30</t>
+          <t>11:30-12:00</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5482,18 +5482,18 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>3.0h 44.455395124960205m</t>
+          <t>1.0h 28.311020177811884m</t>
         </is>
       </c>
       <c r="G81" s="6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -5502,33 +5502,33 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>13:30-14:00</t>
+          <t>10:30-11:00</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>13:35</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G82" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>2.0h 47.89649365748414m</t>
+        </is>
+      </c>
+      <c r="G82" s="6" t="inlineStr">
+        <is>
+          <t>0.02</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -5552,7 +5552,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>4.0h 24.54129504232128m</t>
+          <t>4.0h 38.780795547870866m</t>
         </is>
       </c>
       <c r="G83" s="6" t="inlineStr">
@@ -5563,7 +5563,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -5572,33 +5572,33 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>08:30-09:00</t>
+          <t>15:00-15:30</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Late</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>5.0h 20.111036824663756m</t>
-        </is>
-      </c>
-      <c r="G84" s="6" t="inlineStr">
-        <is>
-          <t>0.01</t>
+          <t>0.0h 40.86464365051654m</t>
+        </is>
+      </c>
+      <c r="G84" s="8" t="inlineStr">
+        <is>
+          <t>0.55</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -5607,33 +5607,33 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>14:00-14:30</t>
+          <t>11:00-11:30</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>14:29</t>
+          <t>14:34</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G85" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>3.0h 4.8065986677058845m</t>
+        </is>
+      </c>
+      <c r="G85" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -5642,33 +5642,33 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>14:30-15:00</t>
+          <t>09:00-09:30</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G86" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>5.0h 20.066627292787075m</t>
+        </is>
+      </c>
+      <c r="G86" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -5677,33 +5677,33 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>15:00-15:30</t>
+          <t>11:00-11:30</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>14:49</t>
+          <t>15:08</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Early</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0.0h 10.201712326966344m</t>
-        </is>
-      </c>
-      <c r="G87" s="7" t="inlineStr">
-        <is>
-          <t>0.89</t>
+          <t>3.0h 38.31510524053829m</t>
+        </is>
+      </c>
+      <c r="G87" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -5712,33 +5712,33 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>15:00-15:30</t>
+          <t>08:00-08:30</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>15:09</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G88" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>6.0h 54.38105956477341m</t>
+        </is>
+      </c>
+      <c r="G88" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -5747,33 +5747,33 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>15:00-15:30</t>
+          <t>14:00-14:30</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G89" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>1.0h 2.6016084442021565m</t>
+        </is>
+      </c>
+      <c r="G89" s="6" t="inlineStr">
+        <is>
+          <t>0.04</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -5782,12 +5782,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>15:00-15:30</t>
+          <t>12:30-13:00</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>15:31</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5797,18 +5797,18 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0.0h 1.027002650806935m</t>
-        </is>
-      </c>
-      <c r="G90" s="5" t="inlineStr">
-        <is>
-          <t>0.99</t>
+          <t>2.0h 45.447049764409485m</t>
+        </is>
+      </c>
+      <c r="G90" s="6" t="inlineStr">
+        <is>
+          <t>0.02</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -5817,33 +5817,33 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>15:30-16:00</t>
+          <t>15:00-15:30</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>16:04</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G91" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>0.0h 34.971005711569774m</t>
+        </is>
+      </c>
+      <c r="G91" s="8" t="inlineStr">
+        <is>
+          <t>0.61</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -5852,33 +5852,33 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>08:30-09:00</t>
+          <t>16:00-16:30</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>15:57</t>
+          <t>16:10</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Late</t>
+          <t>On Time</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>6.0h 57.39092890293864m</t>
-        </is>
-      </c>
-      <c r="G92" s="6" t="inlineStr">
-        <is>
-          <t>0.01</t>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="G92" s="5" t="inlineStr">
+        <is>
+          <t>1.00</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -5887,27 +5887,27 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>08:00-08:30</t>
+          <t>11:30-12:00</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>08:08</t>
+          <t>08:05</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G93" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>3.0h 24.371740292655716m</t>
+        </is>
+      </c>
+      <c r="G93" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>08:23</t>
+          <t>08:16</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5962,7 +5962,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>08:36</t>
+          <t>08:28</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5972,7 +5972,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>4.0h 53.87110066777302m</t>
+          <t>5.0h 1.5444484473879925m</t>
         </is>
       </c>
       <c r="G95" s="6" t="inlineStr">
@@ -5983,7 +5983,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -5992,12 +5992,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>16:00-16:30</t>
+          <t>10:30-11:00</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>08:54</t>
+          <t>08:48</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -6007,18 +6007,18 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>7.0h 5.877461648383132m</t>
+          <t>1.0h 41.062776030289115m</t>
         </is>
       </c>
       <c r="G96" s="6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -6027,33 +6027,33 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>09:00-09:30</t>
+          <t>11:00-11:30</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>09:09</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G97" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>1.0h 59.718209007901464m</t>
+        </is>
+      </c>
+      <c r="G97" s="6" t="inlineStr">
+        <is>
+          <t>0.02</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -6062,33 +6062,33 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>12:30-13:00</t>
+          <t>08:00-08:30</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>09:14</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Early</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>3.0h 4.185860602864295m</t>
-        </is>
-      </c>
-      <c r="G98" s="6" t="inlineStr">
-        <is>
-          <t>0.01</t>
+          <t>0.0h 44.4662984968154m</t>
+        </is>
+      </c>
+      <c r="G98" s="8" t="inlineStr">
+        <is>
+          <t>0.51</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -6097,33 +6097,33 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>15:30-16:00</t>
+          <t>08:30-09:00</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:23</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Early</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>5.0h 57.45169587036696m</t>
-        </is>
-      </c>
-      <c r="G99" s="6" t="inlineStr">
-        <is>
-          <t>0.01</t>
+          <t>0.0h 23.124061961173993m</t>
+        </is>
+      </c>
+      <c r="G99" s="7" t="inlineStr">
+        <is>
+          <t>0.74</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -6132,33 +6132,33 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>09:30-10:00</t>
+          <t>16:00-16:30</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G100" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>6.0h 21.84102368274148m</t>
+        </is>
+      </c>
+      <c r="G100" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -6167,12 +6167,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>14:30-15:00</t>
+          <t>13:30-14:00</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>4.0h 35.42508676210002m</t>
+          <t>3.0h 30.46651498136407m</t>
         </is>
       </c>
       <c r="G101" s="6" t="inlineStr">
@@ -6193,7 +6193,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -6202,33 +6202,33 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>10:00-10:30</t>
+          <t>11:30-12:00</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:13</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G102" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>1.0h 16.310873758745856m</t>
+        </is>
+      </c>
+      <c r="G102" s="6" t="inlineStr">
+        <is>
+          <t>0.04</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -6237,33 +6237,33 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>10:30-11:00</t>
+          <t>09:00-09:30</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G103" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>1.0h 10.728284740214235m</t>
+        </is>
+      </c>
+      <c r="G103" s="6" t="inlineStr">
+        <is>
+          <t>0.04</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -6272,33 +6272,33 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>10:30-11:00</t>
+          <t>12:30-13:00</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G104" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>1.0h 22.25989508997941m</t>
+        </is>
+      </c>
+      <c r="G104" s="6" t="inlineStr">
+        <is>
+          <t>0.03</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -6307,33 +6307,33 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>11:00-11:30</t>
+          <t>14:30-15:00</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G105" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>3.0h 0.38395202222045555m</t>
+        </is>
+      </c>
+      <c r="G105" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -6347,28 +6347,28 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Early</t>
+          <t>On Time</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0.0h 15.481648338971127m</t>
-        </is>
-      </c>
-      <c r="G106" s="7" t="inlineStr">
-        <is>
-          <t>0.83</t>
+          <t>0m</t>
+        </is>
+      </c>
+      <c r="G106" s="5" t="inlineStr">
+        <is>
+          <t>1.00</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -6377,33 +6377,33 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>11:30-12:00</t>
+          <t>09:30-10:00</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Early</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>0.0h 7.630247836929357m</t>
-        </is>
-      </c>
-      <c r="G107" s="5" t="inlineStr">
-        <is>
-          <t>0.92</t>
+          <t>2.0h 30.0m</t>
+        </is>
+      </c>
+      <c r="G107" s="6" t="inlineStr">
+        <is>
+          <t>0.02</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -6412,33 +6412,33 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>11:30-12:00</t>
+          <t>10:00-10:30</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>12:42</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G108" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>2.0h 12.760017418525536m</t>
+        </is>
+      </c>
+      <c r="G108" s="6" t="inlineStr">
+        <is>
+          <t>0.02</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -6447,12 +6447,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>11:30-12:00</t>
+          <t>13:00-13:30</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6473,7 +6473,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -6487,28 +6487,28 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>11:59</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G110" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>1.0h 11.210010488610124m</t>
+        </is>
+      </c>
+      <c r="G110" s="6" t="inlineStr">
+        <is>
+          <t>0.04</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -6522,28 +6522,28 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G111" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>0.0h 28.311020177811884m</t>
+        </is>
+      </c>
+      <c r="G111" s="8" t="inlineStr">
+        <is>
+          <t>0.69</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -6552,33 +6552,33 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>08:30-09:00</t>
+          <t>15:30-16:00</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Late</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>3.0h 41.85941556735963m</t>
+          <t>1.0h 42.10350634251586m</t>
         </is>
       </c>
       <c r="G112" s="6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -6587,33 +6587,33 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>12:30-13:00</t>
+          <t>14:30-15:00</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>12:50</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G113" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>0.0h 21.219204452129134m</t>
+        </is>
+      </c>
+      <c r="G113" s="7" t="inlineStr">
+        <is>
+          <t>0.76</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -6622,33 +6622,33 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>13:00-13:30</t>
+          <t>15:30-16:00</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G114" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>1.0h 10.864643650516541m</t>
+        </is>
+      </c>
+      <c r="G114" s="6" t="inlineStr">
+        <is>
+          <t>0.04</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -6657,27 +6657,27 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>13:00-13:30</t>
+          <t>12:30-13:00</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>14:34</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G115" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>1.0h 34.806598667705885m</t>
+        </is>
+      </c>
+      <c r="G115" s="6" t="inlineStr">
+        <is>
+          <t>0.03</t>
         </is>
       </c>
     </row>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>13:44</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6707,7 +6707,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>4.0h 44.28046569104015m</t>
+          <t>5.0h 50.066627292787075m</t>
         </is>
       </c>
       <c r="G116" s="6" t="inlineStr">
@@ -6718,7 +6718,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -6727,12 +6727,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>13:30-14:00</t>
+          <t>13:00-13:30</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>14:08</t>
+          <t>15:08</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6742,18 +6742,18 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>0.0h 8.591186428069136m</t>
-        </is>
-      </c>
-      <c r="G117" s="5" t="inlineStr">
-        <is>
-          <t>0.90</t>
+          <t>1.0h 38.31510524053829m</t>
+        </is>
+      </c>
+      <c r="G117" s="6" t="inlineStr">
+        <is>
+          <t>0.03</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -6762,12 +6762,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>10:00-10:30</t>
+          <t>09:30-10:00</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>14:32</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6777,7 +6777,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>4.0h 2.6619780021708266m</t>
+          <t>5.0h 24.38105956477341m</t>
         </is>
       </c>
       <c r="G118" s="6" t="inlineStr">
@@ -6788,7 +6788,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -6797,33 +6797,33 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>14:30-15:00</t>
+          <t>11:30-12:00</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G119" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>3.0h 32.60160844420216m</t>
+        </is>
+      </c>
+      <c r="G119" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -6832,33 +6832,33 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>15:00-15:30</t>
+          <t>10:00-10:30</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G120" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>5.0h 15.447049764409485m</t>
+        </is>
+      </c>
+      <c r="G120" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -6867,12 +6867,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>09:30-10:00</t>
+          <t>10:30-11:00</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>15:33</t>
+          <t>16:04</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6882,7 +6882,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>5.0h 33.242563461004806m</t>
+          <t>5.0h 4.971005711569774m</t>
         </is>
       </c>
       <c r="G121" s="6" t="inlineStr">
@@ -6893,7 +6893,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -6902,33 +6902,33 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>15:30-16:00</t>
+          <t>15:00-15:30</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>15:48</t>
+          <t>16:10</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G122" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>0.0h 40.21747849909434m</t>
+        </is>
+      </c>
+      <c r="G122" s="8" t="inlineStr">
+        <is>
+          <t>0.55</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -6937,33 +6937,33 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>08:00-08:30</t>
+          <t>15:30-16:00</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>08:07</t>
+          <t>08:05</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G123" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>7.0h 24.371740292655716m</t>
+        </is>
+      </c>
+      <c r="G123" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -6972,12 +6972,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>10:30-11:00</t>
+          <t>09:30-10:00</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>08:16</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6987,18 +6987,18 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2.0h 7.4381635354412765m</t>
+          <t>1.0h 13.91525049317147m</t>
         </is>
       </c>
       <c r="G124" s="6" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -7007,33 +7007,33 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>08:30-09:00</t>
+          <t>12:30-13:00</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>08:37</t>
+          <t>08:28</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G125" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>4.0h 1.5444484473879925m</t>
+        </is>
+      </c>
+      <c r="G125" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -7042,12 +7042,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>09:00-09:30</t>
+          <t>15:00-15:30</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>08:54</t>
+          <t>08:48</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -7057,18 +7057,18 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>0.0h 5.7465624899224395m</t>
-        </is>
-      </c>
-      <c r="G126" s="5" t="inlineStr">
-        <is>
-          <t>0.94</t>
+          <t>6.0h 11.062776030289115m</t>
+        </is>
+      </c>
+      <c r="G126" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -7077,33 +7077,33 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>09:00-09:30</t>
+          <t>16:00-16:30</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G127" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>6.0h 59.718209007901464m</t>
+        </is>
+      </c>
+      <c r="G127" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -7117,7 +7117,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>09:18</t>
+          <t>09:14</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7138,7 +7138,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -7147,33 +7147,33 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>09:30-10:00</t>
+          <t>08:00-08:30</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>09:23</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Early</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0.0h 3.1002672409744036m</t>
-        </is>
-      </c>
-      <c r="G129" s="5" t="inlineStr">
-        <is>
-          <t>0.97</t>
+          <t>0.0h 53.12406196117399m</t>
+        </is>
+      </c>
+      <c r="G129" s="6" t="inlineStr">
+        <is>
+          <t>0.05</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -7182,33 +7182,33 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>09:30-10:00</t>
+          <t>10:30-11:00</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G130" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>0.0h 51.84102368274148m</t>
+        </is>
+      </c>
+      <c r="G130" s="6" t="inlineStr">
+        <is>
+          <t>0.05</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7243,7 +7243,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -7252,33 +7252,33 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>09:30-10:00</t>
+          <t>11:30-12:00</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>10:11</t>
+          <t>10:13</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Late</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0.0h 11.57052355939095m</t>
-        </is>
-      </c>
-      <c r="G132" s="7" t="inlineStr">
-        <is>
-          <t>0.87</t>
+          <t>1.0h 16.310873758745856m</t>
+        </is>
+      </c>
+      <c r="G132" s="6" t="inlineStr">
+        <is>
+          <t>0.04</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -7287,33 +7287,33 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>16:00-16:30</t>
+          <t>08:30-09:00</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Early</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>5.0h 35.212749889397855m</t>
+          <t>1.0h 40.728284740214235m</t>
         </is>
       </c>
       <c r="G133" s="6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -7322,33 +7322,33 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>10:00-10:30</t>
+          <t>15:30-16:00</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>10:31</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Late</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0.0h 1.8281202542701749m</t>
-        </is>
-      </c>
-      <c r="G134" s="5" t="inlineStr">
-        <is>
-          <t>0.98</t>
+          <t>4.0h 22.25989508997941m</t>
+        </is>
+      </c>
+      <c r="G134" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -7357,12 +7357,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>11:00-11:30</t>
+          <t>12:30-13:00</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7372,18 +7372,18 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0.0h 12.212431744767514m</t>
-        </is>
-      </c>
-      <c r="G135" s="7" t="inlineStr">
-        <is>
-          <t>0.86</t>
+          <t>1.0h 0.38395202222045555m</t>
+        </is>
+      </c>
+      <c r="G135" s="6" t="inlineStr">
+        <is>
+          <t>0.05</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -7392,33 +7392,33 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>11:30-12:00</t>
+          <t>08:30-09:00</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Early</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0.0h 18.864388882728008m</t>
-        </is>
-      </c>
-      <c r="G136" s="7" t="inlineStr">
-        <is>
-          <t>0.79</t>
+          <t>2.0h 46.733856724970224m</t>
+        </is>
+      </c>
+      <c r="G136" s="6" t="inlineStr">
+        <is>
+          <t>0.02</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -7427,33 +7427,33 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>11:30-12:00</t>
+          <t>14:30-15:00</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>11:35</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G137" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>2.0h 0.0m</t>
+        </is>
+      </c>
+      <c r="G137" s="6" t="inlineStr">
+        <is>
+          <t>0.02</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -7462,33 +7462,33 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>11:30-12:00</t>
+          <t>09:30-10:00</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>12:42</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G138" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>2.0h 42.760017418525536m</t>
+        </is>
+      </c>
+      <c r="G138" s="6" t="inlineStr">
+        <is>
+          <t>0.02</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -7497,33 +7497,33 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>12:30-13:00</t>
+          <t>11:00-11:30</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G139" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>1.0h 35.89809809683857m</t>
+        </is>
+      </c>
+      <c r="G139" s="6" t="inlineStr">
+        <is>
+          <t>0.03</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -7532,33 +7532,33 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>12:30-13:00</t>
+          <t>09:00-09:30</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G140" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>3.0h 41.21001048861012m</t>
+        </is>
+      </c>
+      <c r="G140" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -7567,33 +7567,33 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>12:30-13:00</t>
+          <t>16:00-16:30</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>12:56</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Early</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G141" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>2.0h 31.688979822188116m</t>
+        </is>
+      </c>
+      <c r="G141" s="6" t="inlineStr">
+        <is>
+          <t>0.02</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -7602,12 +7602,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>12:30-13:00</t>
+          <t>08:00-08:30</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7617,18 +7617,18 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>0.0h 7.5437080780756105m</t>
-        </is>
-      </c>
-      <c r="G142" s="5" t="inlineStr">
-        <is>
-          <t>0.92</t>
+          <t>5.0h 17.896493657484143m</t>
+        </is>
+      </c>
+      <c r="G142" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -7637,12 +7637,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>11:00-11:30</t>
+          <t>09:30-10:00</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>14:08</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7652,12 +7652,12 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>1.0h 58.27613655905077m</t>
+          <t>4.0h 8.780795547870866m</t>
         </is>
       </c>
       <c r="G143" s="6" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
     </row>
@@ -7677,7 +7677,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>14:19</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>4.0h 50.81895929997222m</t>
+          <t>5.0h 19.13535634948346m</t>
         </is>
       </c>
       <c r="G144" s="6" t="inlineStr">
@@ -7698,7 +7698,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -7707,12 +7707,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>08:00-08:30</t>
+          <t>09:00-09:30</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>14:09</t>
+          <t>14:34</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7722,7 +7722,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>5.0h 39.08482962866947m</t>
+          <t>5.0h 4.8065986677058845m</t>
         </is>
       </c>
       <c r="G145" s="6" t="inlineStr">
@@ -7733,7 +7733,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -7742,33 +7742,33 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>14:30-15:00</t>
+          <t>11:30-12:00</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Early</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>0.0h 2.773954010274565m</t>
-        </is>
-      </c>
-      <c r="G146" s="5" t="inlineStr">
-        <is>
-          <t>0.97</t>
+          <t>2.0h 50.066627292787075m</t>
+        </is>
+      </c>
+      <c r="G146" s="6" t="inlineStr">
+        <is>
+          <t>0.02</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -7777,12 +7777,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>08:30-09:00</t>
+          <t>14:30-15:00</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>14:46</t>
+          <t>15:08</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -7792,18 +7792,18 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>5.0h 46.71706647528572m</t>
-        </is>
-      </c>
-      <c r="G147" s="6" t="inlineStr">
-        <is>
-          <t>0.01</t>
+          <t>0.0h 8.315105240538287m</t>
+        </is>
+      </c>
+      <c r="G147" s="5" t="inlineStr">
+        <is>
+          <t>0.91</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -7812,33 +7812,33 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>15:00-15:30</t>
+          <t>12:30-13:00</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G148" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>2.0h 24.38105956477341m</t>
+        </is>
+      </c>
+      <c r="G148" s="6" t="inlineStr">
+        <is>
+          <t>0.02</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -7847,12 +7847,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>14:30-15:00</t>
+          <t>10:00-10:30</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -7862,18 +7862,18 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>0.0h 14.003854372877527m</t>
-        </is>
-      </c>
-      <c r="G149" s="7" t="inlineStr">
-        <is>
-          <t>0.84</t>
+          <t>5.0h 2.6016084442021565m</t>
+        </is>
+      </c>
+      <c r="G149" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -7882,33 +7882,33 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>15:30-16:00</t>
+          <t>11:30-12:00</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>15:33</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G150" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>3.0h 45.447049764409485m</t>
+        </is>
+      </c>
+      <c r="G150" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -7917,33 +7917,33 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>15:30-16:00</t>
+          <t>12:30-13:00</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>15:53</t>
+          <t>16:04</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G151" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>3.0h 4.971005711569774m</t>
+        </is>
+      </c>
+      <c r="G151" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -7952,27 +7952,27 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>16:00-16:30</t>
+          <t>11:00-11:30</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>16:06</t>
+          <t>16:10</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>On Time</t>
+          <t>Late</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>0m</t>
-        </is>
-      </c>
-      <c r="G152" s="5" t="inlineStr">
-        <is>
-          <t>1.00</t>
+          <t>4.0h 40.21747849909434m</t>
+        </is>
+      </c>
+      <c r="G152" s="6" t="inlineStr">
+        <is>
+          <t>0.01</t>
         </is>
       </c>
     </row>
@@ -8046,29 +8046,29 @@
       <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="inlineStr">
-        <is>
-          <t>09:58</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="inlineStr">
-        <is>
-          <t>08:56</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>11:57</t>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>12:42</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>12:42</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>12:42</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>14:32</t>
-        </is>
-      </c>
-      <c r="F3" s="7" t="inlineStr">
-        <is>
-          <t>10:11</t>
+          <t>12:42</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>12:42</t>
         </is>
       </c>
     </row>
@@ -8081,24 +8081,24 @@
           <t>09:14</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>14:59</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>15:57</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>08:08</t>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>09:14</t>
+        </is>
+      </c>
+      <c r="D4" s="7" t="inlineStr">
+        <is>
+          <t>09:14</t>
+        </is>
+      </c>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>09:14</t>
         </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>09:14</t>
         </is>
       </c>
     </row>
@@ -8111,24 +8111,24 @@
           <t>08:05</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>11:24</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>15:31</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>11:59</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>15:53</t>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>08:05</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>08:05</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>08:05</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>08:05</t>
         </is>
       </c>
     </row>
@@ -8143,22 +8143,22 @@
       </c>
       <c r="C6" s="6" t="inlineStr">
         <is>
-          <t>12:40</t>
-        </is>
-      </c>
-      <c r="D6" s="7" t="inlineStr">
-        <is>
-          <t>14:49</t>
+          <t>08:28</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>08:28</t>
         </is>
       </c>
       <c r="E6" s="6" t="inlineStr">
         <is>
-          <t>08:36</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>12:30</t>
+          <t>08:28</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>08:28</t>
         </is>
       </c>
     </row>
@@ -8168,27 +8168,27 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>13:39</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>09:38</t>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>14:08</t>
         </is>
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>13:14</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>14:58</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>09:42</t>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>14:08</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>14:08</t>
         </is>
       </c>
     </row>
@@ -8201,24 +8201,24 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr">
-        <is>
-          <t>08:04</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>15:40</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>09:44</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr">
-        <is>
-          <t>15:14</t>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>12:30</t>
         </is>
       </c>
     </row>
@@ -8226,29 +8226,29 @@
       <c r="A9" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>11:34</t>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>14:50</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>14:50</t>
         </is>
       </c>
       <c r="D9" s="6" t="inlineStr">
         <is>
-          <t>13:54</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="E9" s="6" t="inlineStr">
         <is>
-          <t>13:44</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>11:35</t>
+          <t>14:50</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>14:50</t>
         </is>
       </c>
     </row>
@@ -8258,27 +8258,27 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>11:17</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>09:21</t>
+          <t>11:07</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>11:07</t>
         </is>
       </c>
       <c r="D10" s="6" t="inlineStr">
         <is>
-          <t>09:34</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="inlineStr">
-        <is>
-          <t>15:33</t>
+          <t>11:07</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>11:07</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>11:07</t>
         </is>
       </c>
     </row>
@@ -8288,27 +8288,27 @@
       </c>
       <c r="B11" s="5" t="inlineStr">
         <is>
-          <t>14:03</t>
+          <t>14:34</t>
         </is>
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>14:15</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>11:16</t>
+          <t>14:34</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>14:34</t>
         </is>
       </c>
       <c r="E11" s="6" t="inlineStr">
         <is>
-          <t>09:25</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="inlineStr">
-        <is>
-          <t>08:54</t>
+          <t>14:34</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>14:34</t>
         </is>
       </c>
     </row>
@@ -8318,27 +8318,27 @@
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>11:39</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>10:29</t>
+          <t>11:29</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>11:29</t>
         </is>
       </c>
       <c r="D12" s="6" t="inlineStr">
         <is>
-          <t>10:32</t>
+          <t>11:29</t>
         </is>
       </c>
       <c r="E12" s="6" t="inlineStr">
         <is>
-          <t>09:54</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="inlineStr">
-        <is>
-          <t>13:07</t>
+          <t>11:29</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>11:29</t>
         </is>
       </c>
     </row>
@@ -8348,27 +8348,27 @@
       </c>
       <c r="B13" s="5" t="inlineStr">
         <is>
-          <t>11:56</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>13:30</t>
+          <t>11:46</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>11:46</t>
         </is>
       </c>
       <c r="D13" s="6" t="inlineStr">
         <is>
-          <t>14:20</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="F13" s="6" t="inlineStr">
         <is>
-          <t>14:46</t>
+          <t>11:46</t>
         </is>
       </c>
     </row>
@@ -8383,22 +8383,22 @@
       </c>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>13:40</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>13:35</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>11:00</t>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>09:00</t>
         </is>
       </c>
       <c r="F14" s="6" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>09:00</t>
         </is>
       </c>
     </row>
@@ -8406,29 +8406,29 @@
       <c r="A15" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>15:11</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>10:09</t>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D15" s="6" t="inlineStr">
         <is>
-          <t>09:47</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>10:15</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="inlineStr">
-        <is>
-          <t>11:55</t>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>15:45</t>
         </is>
       </c>
     </row>
@@ -8436,29 +8436,29 @@
       <c r="A16" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>14:50</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="inlineStr">
-        <is>
-          <t>14:50</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>14:29</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>11:32</t>
-        </is>
-      </c>
-      <c r="F16" s="5" t="inlineStr">
-        <is>
-          <t>10:31</t>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>15:32</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>15:32</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>15:32</t>
+        </is>
+      </c>
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>15:32</t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>15:32</t>
         </is>
       </c>
     </row>
@@ -8473,22 +8473,22 @@
       </c>
       <c r="C17" s="8" t="inlineStr">
         <is>
-          <t>08:51</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>10:26</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>10:36</t>
-        </is>
-      </c>
-      <c r="F17" s="5" t="inlineStr">
-        <is>
-          <t>15:05</t>
+          <t>08:48</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>08:48</t>
+        </is>
+      </c>
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>08:48</t>
+        </is>
+      </c>
+      <c r="F17" s="6" t="inlineStr">
+        <is>
+          <t>08:48</t>
         </is>
       </c>
     </row>
@@ -8498,27 +8498,27 @@
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>15:43</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="inlineStr">
-        <is>
-          <t>12:54</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>08:03</t>
+          <t>15:24</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>15:24</t>
+        </is>
+      </c>
+      <c r="D18" s="6" t="inlineStr">
+        <is>
+          <t>15:24</t>
         </is>
       </c>
       <c r="E18" s="6" t="inlineStr">
         <is>
-          <t>15:33</t>
-        </is>
-      </c>
-      <c r="F18" s="5" t="inlineStr">
-        <is>
-          <t>12:44</t>
+          <t>15:24</t>
+        </is>
+      </c>
+      <c r="F18" s="6" t="inlineStr">
+        <is>
+          <t>15:24</t>
         </is>
       </c>
     </row>
@@ -8526,29 +8526,29 @@
       <c r="A19" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="inlineStr">
-        <is>
-          <t>13:06</t>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>13:47</t>
         </is>
       </c>
       <c r="C19" s="6" t="inlineStr">
         <is>
-          <t>10:39</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>10:41</t>
+          <t>13:47</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>13:47</t>
         </is>
       </c>
       <c r="E19" s="6" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>13:47</t>
         </is>
       </c>
       <c r="F19" s="6" t="inlineStr">
         <is>
-          <t>14:09</t>
+          <t>13:47</t>
         </is>
       </c>
     </row>
@@ -8558,27 +8558,27 @@
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>12:50</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="inlineStr">
-        <is>
-          <t>10:54</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>09:25</t>
+          <t>13:05</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr">
+        <is>
+          <t>13:05</t>
+        </is>
+      </c>
+      <c r="D20" s="6" t="inlineStr">
+        <is>
+          <t>13:05</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>13:09</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="F20" s="6" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>13:05</t>
         </is>
       </c>
     </row>
@@ -8591,24 +8591,24 @@
           <t>08:16</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>13:59</t>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>08:16</t>
         </is>
       </c>
       <c r="D21" s="6" t="inlineStr">
         <is>
-          <t>09:06</t>
+          <t>08:16</t>
         </is>
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>08:23</t>
-        </is>
-      </c>
-      <c r="F21" s="5" t="inlineStr">
-        <is>
-          <t>09:50</t>
+          <t>08:16</t>
+        </is>
+      </c>
+      <c r="F21" s="6" t="inlineStr">
+        <is>
+          <t>08:16</t>
         </is>
       </c>
     </row>
@@ -8618,27 +8618,27 @@
       </c>
       <c r="B22" s="5" t="inlineStr">
         <is>
-          <t>13:21</t>
-        </is>
-      </c>
-      <c r="C22" s="8" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="D22" s="5" t="inlineStr">
-        <is>
-          <t>08:47</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="inlineStr">
-        <is>
-          <t>11:14</t>
-        </is>
-      </c>
-      <c r="F22" s="5" t="inlineStr">
-        <is>
-          <t>09:18</t>
+          <t>13:11</t>
+        </is>
+      </c>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>13:11</t>
+        </is>
+      </c>
+      <c r="D22" s="6" t="inlineStr">
+        <is>
+          <t>13:11</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="inlineStr">
+        <is>
+          <t>13:11</t>
+        </is>
+      </c>
+      <c r="F22" s="6" t="inlineStr">
+        <is>
+          <t>13:11</t>
         </is>
       </c>
     </row>
@@ -8651,24 +8651,24 @@
           <t>09:38</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr">
-        <is>
-          <t>09:52</t>
-        </is>
-      </c>
-      <c r="D23" s="5" t="inlineStr">
-        <is>
-          <t>10:09</t>
+      <c r="C23" s="7" t="inlineStr">
+        <is>
+          <t>09:38</t>
+        </is>
+      </c>
+      <c r="D23" s="7" t="inlineStr">
+        <is>
+          <t>09:38</t>
         </is>
       </c>
       <c r="E23" s="6" t="inlineStr">
         <is>
-          <t>08:54</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="F23" s="6" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>09:38</t>
         </is>
       </c>
     </row>
@@ -8678,27 +8678,27 @@
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
-          <t>15:04</t>
-        </is>
-      </c>
-      <c r="C24" s="5" t="inlineStr">
-        <is>
-          <t>11:12</t>
-        </is>
-      </c>
-      <c r="D24" s="5" t="inlineStr">
-        <is>
-          <t>10:59</t>
-        </is>
-      </c>
-      <c r="E24" s="5" t="inlineStr">
-        <is>
-          <t>13:27</t>
+          <t>15:08</t>
+        </is>
+      </c>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>15:08</t>
+        </is>
+      </c>
+      <c r="D24" s="6" t="inlineStr">
+        <is>
+          <t>15:08</t>
+        </is>
+      </c>
+      <c r="E24" s="6" t="inlineStr">
+        <is>
+          <t>15:08</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>15:08</t>
         </is>
       </c>
     </row>
@@ -8706,29 +8706,29 @@
       <c r="A25" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="inlineStr">
-        <is>
-          <t>15:29</t>
-        </is>
-      </c>
-      <c r="C25" s="5" t="inlineStr">
-        <is>
-          <t>15:38</t>
-        </is>
-      </c>
-      <c r="D25" s="6" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="E25" s="5" t="inlineStr">
-        <is>
-          <t>11:22</t>
-        </is>
-      </c>
-      <c r="F25" s="7" t="inlineStr">
-        <is>
-          <t>11:11</t>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>10:13</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>10:13</t>
+        </is>
+      </c>
+      <c r="D25" s="7" t="inlineStr">
+        <is>
+          <t>10:13</t>
+        </is>
+      </c>
+      <c r="E25" s="6" t="inlineStr">
+        <is>
+          <t>10:13</t>
+        </is>
+      </c>
+      <c r="F25" s="6" t="inlineStr">
+        <is>
+          <t>10:13</t>
         </is>
       </c>
     </row>
@@ -8736,29 +8736,29 @@
       <c r="A26" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="inlineStr">
-        <is>
-          <t>10:50</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>11:46</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="inlineStr">
-        <is>
-          <t>08:19</t>
-        </is>
-      </c>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t>09:09</t>
-        </is>
-      </c>
-      <c r="F26" s="5" t="inlineStr">
-        <is>
-          <t>08:37</t>
+      <c r="B26" s="6" t="inlineStr">
+        <is>
+          <t>10:40</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="inlineStr">
+        <is>
+          <t>10:40</t>
+        </is>
+      </c>
+      <c r="D26" s="6" t="inlineStr">
+        <is>
+          <t>10:40</t>
+        </is>
+      </c>
+      <c r="E26" s="6" t="inlineStr">
+        <is>
+          <t>10:40</t>
+        </is>
+      </c>
+      <c r="F26" s="6" t="inlineStr">
+        <is>
+          <t>10:40</t>
         </is>
       </c>
     </row>
@@ -8768,27 +8768,27 @@
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="C27" s="6" t="inlineStr">
         <is>
-          <t>14:33</t>
-        </is>
-      </c>
-      <c r="D27" s="5" t="inlineStr">
-        <is>
-          <t>11:34</t>
-        </is>
-      </c>
-      <c r="E27" s="5" t="inlineStr">
-        <is>
-          <t>12:50</t>
-        </is>
-      </c>
-      <c r="F27" s="5" t="inlineStr">
-        <is>
-          <t>16:06</t>
+          <t>13:28</t>
+        </is>
+      </c>
+      <c r="D27" s="6" t="inlineStr">
+        <is>
+          <t>13:28</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>13:28</t>
+        </is>
+      </c>
+      <c r="F27" s="6" t="inlineStr">
+        <is>
+          <t>13:28</t>
         </is>
       </c>
     </row>
@@ -8798,27 +8798,27 @@
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
-          <t>16:01</t>
+          <t>16:10</t>
         </is>
       </c>
       <c r="C28" s="6" t="inlineStr">
         <is>
-          <t>13:07</t>
-        </is>
-      </c>
-      <c r="D28" s="6" t="inlineStr">
-        <is>
-          <t>12:53</t>
-        </is>
-      </c>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t>15:19</t>
-        </is>
-      </c>
-      <c r="F28" s="7" t="inlineStr">
-        <is>
-          <t>10:47</t>
+          <t>16:10</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>16:10</t>
+        </is>
+      </c>
+      <c r="E28" s="8" t="inlineStr">
+        <is>
+          <t>16:10</t>
+        </is>
+      </c>
+      <c r="F28" s="6" t="inlineStr">
+        <is>
+          <t>16:10</t>
         </is>
       </c>
     </row>
@@ -8831,24 +8831,24 @@
           <t>14:19</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
-        <is>
-          <t>15:16</t>
-        </is>
-      </c>
-      <c r="D29" s="5" t="inlineStr">
-        <is>
-          <t>15:23</t>
-        </is>
-      </c>
-      <c r="E29" s="5" t="inlineStr">
-        <is>
-          <t>15:48</t>
+      <c r="C29" s="8" t="inlineStr">
+        <is>
+          <t>14:19</t>
+        </is>
+      </c>
+      <c r="D29" s="8" t="inlineStr">
+        <is>
+          <t>14:19</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>14:19</t>
         </is>
       </c>
       <c r="F29" s="6" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>14:19</t>
         </is>
       </c>
     </row>
@@ -8856,29 +8856,29 @@
       <c r="A30" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="7" t="inlineStr">
-        <is>
-          <t>10:22</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>08:28</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>14:41</t>
-        </is>
-      </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>14:08</t>
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>09:59</t>
+        </is>
+      </c>
+      <c r="C30" s="6" t="inlineStr">
+        <is>
+          <t>09:59</t>
+        </is>
+      </c>
+      <c r="D30" s="6" t="inlineStr">
+        <is>
+          <t>09:59</t>
+        </is>
+      </c>
+      <c r="E30" s="6" t="inlineStr">
+        <is>
+          <t>09:59</t>
         </is>
       </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>09:59</t>
         </is>
       </c>
     </row>
@@ -8888,27 +8888,27 @@
       </c>
       <c r="B31" s="5" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>16:04</t>
         </is>
       </c>
       <c r="C31" s="6" t="inlineStr">
         <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D31" s="5" t="inlineStr">
-        <is>
-          <t>15:09</t>
-        </is>
-      </c>
-      <c r="E31" s="5" t="inlineStr">
-        <is>
-          <t>10:44</t>
-        </is>
-      </c>
-      <c r="F31" s="5" t="inlineStr">
-        <is>
-          <t>12:56</t>
+          <t>16:04</t>
+        </is>
+      </c>
+      <c r="D31" s="8" t="inlineStr">
+        <is>
+          <t>16:04</t>
+        </is>
+      </c>
+      <c r="E31" s="6" t="inlineStr">
+        <is>
+          <t>16:04</t>
+        </is>
+      </c>
+      <c r="F31" s="6" t="inlineStr">
+        <is>
+          <t>16:04</t>
         </is>
       </c>
     </row>
@@ -8923,22 +8923,22 @@
       </c>
       <c r="C32" s="6" t="inlineStr">
         <is>
-          <t>08:19</t>
+          <t>09:23</t>
         </is>
       </c>
       <c r="D32" s="5" t="inlineStr">
         <is>
-          <t>09:54</t>
-        </is>
-      </c>
-      <c r="E32" s="6" t="inlineStr">
-        <is>
-          <t>12:41</t>
-        </is>
-      </c>
-      <c r="F32" s="5" t="inlineStr">
-        <is>
-          <t>08:07</t>
+          <t>09:23</t>
+        </is>
+      </c>
+      <c r="E32" s="7" t="inlineStr">
+        <is>
+          <t>09:23</t>
+        </is>
+      </c>
+      <c r="F32" s="6" t="inlineStr">
+        <is>
+          <t>09:23</t>
         </is>
       </c>
     </row>
